--- a/results/I3_N5_M3_T30_C100_DepCentral_s0_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1840.292649139901</v>
+        <v>155.1550089908196</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.766999959945679</v>
+        <v>0.9149999618530273</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.45855457449484</v>
+        <v>25.15500899081957</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.249116512515144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.953211077916887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1664.050000000005</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,83 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -711,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -744,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -755,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -766,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -777,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -835,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -951,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26.43123270582124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.836925852814959</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.22165433847207</v>
+        <v>22.94108823397053</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.53709154700938</v>
+        <v>25.85875413377279</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.16274257244262</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1021,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,188 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>176.6900000000011</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1343,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>173.05</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1354,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>182.4850000000001</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1365,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>180.6549999999999</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>176.3400000000004</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1387,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3750000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1398,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0400000000008</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1409,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9250000000008</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -1420,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.4350000000008</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1431,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7050000000008</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1442,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999935</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1453,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -1464,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1475,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -1486,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -1508,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -1519,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -1530,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -1541,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -1552,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>176.7649999999986</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1563,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>179.8599999999999</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1574,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>191.55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1585,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>181.9549999999988</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1596,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>193.1949999999996</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1607,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>101.375</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -1618,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>103.0400000000009</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -1629,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>103.9250000000011</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1640,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>105.4350000000013</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -1651,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>105.7049999999999</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -1662,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>176.6900000000011</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -1673,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>173.05</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -1684,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>182.4850000000001</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
@@ -1695,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>180.6549999999999</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -1706,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>176.3400000000004</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
@@ -1717,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>176.7649999999994</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -1728,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>179.8600000000006</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
@@ -1739,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>191.55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
@@ -1750,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>181.9549999999981</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -1761,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>193.1949999999997</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1819,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.040000000000873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1830,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3.925000000001091</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1841,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.43500000000131</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1852,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.704999999999927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1863,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>76.69000000000108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1874,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>73.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1885,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>82.48500000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1896,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>80.65499999999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1907,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>76.34000000000037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1918,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>76.76499999999942</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1929,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>79.86000000000058</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1940,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>91.55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1951,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>81.95499999999811</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1962,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>93.19499999999971</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2064,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2075,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2086,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2097,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2108,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2287,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2314,10 +2055,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2325,10 +2066,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2336,10 +2077,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2347,10 +2088,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2358,10 +2099,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2369,10 +2110,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2380,10 +2121,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2391,155 +2132,12 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>
